--- a/story_xlsx_files_postpilotiiedits/24.xlsx
+++ b/story_xlsx_files_postpilotiiedits/24.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>storyText</t>
   </si>
@@ -86,27 +86,18 @@
     <t>Lana and Aaron tried to take notes during the lecture.</t>
   </si>
   <si>
-    <t xml:space="preserve">Right after talking about how two ions bond into one stable molecule by covalent bonds, the professor stopped the lecture, gave another wink to Aaron, and asked Lana to come to the front of the class to do a demonstration. </t>
-  </si>
-  <si>
-    <t>She walked to the front of the class confused, and the professor asked her to stand in the middle of the stage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then Aaron walked up and, taking Lana’s hand, got down on one knee. </t>
+    <t xml:space="preserve">The professor stopped the lecture and asked Lana and Aaron to come to the front of the class to do a demonstration. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They walked to the front of the class with Lana very confused, and when they got to the front Aaron got down on one knee and asked Lana to marry him. </t>
   </si>
   <si>
     <t xml:space="preserve">The professor quickly switched to the last slide on the powerpoint which was a photo collage Aaron had sent him of pictures of Aaron and Lana. </t>
   </si>
   <si>
-    <t>“It's time for us to make a bond of our own, Lana.”</t>
-  </si>
-  <si>
     <t xml:space="preserve">He opened the small notebook he had in his hand and the ring was sitting on the page. </t>
   </si>
   <si>
-    <t xml:space="preserve">“Will you marry me?” </t>
-  </si>
-  <si>
     <t>Lana had put her hand over her mouth and tears were streaming down her face, but finally, she said, “Yes!”</t>
   </si>
   <si>
@@ -119,7 +110,7 @@
     <t>The professor gave Aaron a celebratory handshake.</t>
   </si>
   <si>
-    <t>They made their way back to their seats, and Lana pulled out her phone to text her sister</t>
+    <t>They made their way back to their seats, and Lana pulled out her phone to text her sister.</t>
   </si>
   <si>
     <t>The professor dismissed the class, saying, “That was enough excitement for today!</t>
@@ -1420,7 +1411,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1751,7 +1742,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="176.05" customHeight="1">
+    <row r="22" ht="92.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1759,14 +1750,14 @@
         <v>3</v>
       </c>
       <c r="C22" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="92.05" customHeight="1">
+    <row r="23" ht="116.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1781,7 +1772,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="68.05" customHeight="1">
+    <row r="24" ht="116.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1796,7 +1787,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="116.05" customHeight="1">
+    <row r="25" ht="80.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1811,7 +1802,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="44.05" customHeight="1">
+    <row r="26" ht="92.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1819,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1834,14 +1825,14 @@
         <v>3</v>
       </c>
       <c r="C27" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="32.05" customHeight="1">
+    <row r="28" ht="92.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
@@ -1849,14 +1840,14 @@
         <v>3</v>
       </c>
       <c r="C28" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="92.05" customHeight="1">
+    <row r="29" ht="56.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
@@ -1886,12 +1877,12 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="92.05" customHeight="1">
+    <row r="31" ht="80.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
       <c r="B31" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="10">
         <v>4</v>
@@ -1901,12 +1892,12 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="56.05" customHeight="1">
+    <row r="32" ht="104.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
       <c r="B32" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="10">
         <v>4</v>
@@ -1916,12 +1907,12 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="80.05" customHeight="1">
+    <row r="33" ht="140.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
       <c r="B33" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="10">
         <v>4</v>
@@ -1931,46 +1922,28 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="80.05" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="B34" s="9">
-        <v>4</v>
-      </c>
-      <c r="C34" s="10">
-        <v>4</v>
-      </c>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="104.05" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B35" s="9">
-        <v>4</v>
-      </c>
-      <c r="C35" s="10">
-        <v>4</v>
-      </c>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="140.05" customHeight="1">
-      <c r="A36" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="B36" s="9">
-        <v>4</v>
-      </c>
-      <c r="C36" s="10">
-        <v>4</v>
-      </c>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -2030,33 +2003,6 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files_postpilotiiedits/24.xlsx
+++ b/story_xlsx_files_postpilotiiedits/24.xlsx
@@ -35,10 +35,10 @@
     <t xml:space="preserve">The lecture hall they had entered was the fanciest one at Princeton, with chandeliers, high ceilings, wood floors, and a large projector screen where chalkboards used to be. </t>
   </si>
   <si>
-    <t>Aaron and Lana had met when they first started dating three years ago in freshman year.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They coincidentally had another class together in this same lecture hall. </t>
+    <t>Aaron and Lana had met in this lecture hall when they first started dating three years ago in freshman year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They coincidentally had another class together in this very same lecture hall. </t>
   </si>
   <si>
     <t xml:space="preserve">The professor caught Aaron's eye as he walked up to the front of the classroom and gave him a wink before the lecture began. </t>
@@ -56,7 +56,7 @@
     <t>This week the topic is ions.</t>
   </si>
   <si>
-    <t>Now, let me get my computer set up, and while I do that, does anyone want to tell me what makes elements definitionally distinct from one another.”</t>
+    <t>Now, let me get my computer set up, and while I do that, does anyone want to tell me what makes elements definitionally distinct from one another?”</t>
   </si>
   <si>
     <t>Lana pulled out the problem set she was thinking about as Aaron unzipped the small pocket in his backpack and pulled out the ring.</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">They walked to the front of the class with Lana very confused, and when they got to the front Aaron got down on one knee and asked Lana to marry him. </t>
   </si>
   <si>
-    <t xml:space="preserve">The professor quickly switched to the last slide on the powerpoint which was a photo collage Aaron had sent him of pictures of Aaron and Lana. </t>
+    <t xml:space="preserve">The professor quickly switched to the last slide on the powerpoint which was a photo collage Aaron had sent him of pictures of Aaron and Lana together. </t>
   </si>
   <si>
     <t xml:space="preserve">He opened the small notebook he had in his hand and the ring was sitting on the page. </t>
@@ -119,7 +119,7 @@
     <t>Don’t forget there’s a midterm exam next week on Monday on the material covered in the first 4 weeks of the semester.</t>
   </si>
   <si>
-    <t xml:space="preserve">As everyone was packing up their notebooks and leaving, Lana and Aaron were surrounded by their friends eager to get a glimpse of the ring and congratulate them. </t>
+    <t xml:space="preserve">As everyone was packing up their notebooks and leaving, Lana and Aaron were surrounded by their friends, who were eager to get a glimpse of the ring and congratulate them. </t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1487,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="80.05" customHeight="1">
+    <row r="5" ht="92.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="68.05" customHeight="1">
+    <row r="6" ht="80.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="140.05" customHeight="1">
+    <row r="33" ht="152.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
